--- a/outputs/postGWAS_sep/EffectorP.xlsx
+++ b/outputs/postGWAS_sep/EffectorP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrodominguezrondon/Documents/PhD/septoria_GS/outputs/postGWAS_sep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA6007-8C1B-444C-B666-1C13B7140774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1EDB8C-39E0-5549-8FDD-C5DE82A99EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{FD045EAC-80ED-8B41-A410-C22E2743A3FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>Cytoplasmic effector</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>#Identifier</t>
+  </si>
+  <si>
+    <t>ZtIPO323_125710</t>
+  </si>
+  <si>
+    <t>Y (0.988)</t>
   </si>
 </sst>
 </file>
@@ -615,9 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32D605B-F5E1-3F40-B85B-127EB944FF73}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1262,6 +1270,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
